--- a/target/classes/planilha-apache-poi.xlsx
+++ b/target/classes/planilha-apache-poi.xlsx
@@ -159,16 +159,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="11.14" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="12.28" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.28"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -186,7 +186,7 @@
       </c>
       <c r="G2" s="2" t="n">
         <f aca="false">Planilha2!D2</f>
-        <v>-450.0</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -204,18 +204,33 @@
         <v>5</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>100.0</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="0" t="n">
+        <v>500.3</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">SUM(D6:E6)</f>
+        <v>502.3</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">D6*E6</f>
+        <v>1000.6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
     </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B7"/>
@@ -243,8 +258,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="12.28" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="7.14" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -264,7 +279,7 @@
       </c>
       <c r="D2" s="0" t="n">
         <f aca="false">Planilha1!D4-C2</f>
-        <v>-450.0</v>
+        <v>-30</v>
       </c>
     </row>
   </sheetData>
